--- a/TUnderdark/Resources/Cards.xlsx
+++ b/TUnderdark/Resources/Cards.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\TUnderdark\TUnderdark\TUnderdark\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cards'!$A$1:$G$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cards!$A$1:$G$126</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="290">
   <si>
     <t>SpecificType</t>
   </si>
@@ -867,14 +874,31 @@
   </si>
   <si>
     <t>Elder Brain</t>
+  </si>
+  <si>
+    <t>ValuePerTurn</t>
+  </si>
+  <si>
+    <t>WDisp</t>
+  </si>
+  <si>
+    <t>CDisp</t>
+  </si>
+  <si>
+    <t>PromoteSpeed</t>
+  </si>
+  <si>
+    <t>DevourSpeed</t>
+  </si>
+  <si>
+    <t>DrawSpeed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -898,2938 +922,5478 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.133769989013672" customWidth="1"/>
-    <col min="2" max="2" width="11.592198371887207" customWidth="1"/>
-    <col min="3" max="3" width="18.356706619262695" customWidth="1"/>
-    <col min="4" max="4" width="25.896697998046875" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.3264799118042" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="H1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K1" t="s">
+        <v>287</v>
+      </c>
+      <c r="L1" t="s">
+        <v>288</v>
+      </c>
+      <c r="M1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.4</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="0">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <v>0.2</v>
+      </c>
+      <c r="J3">
+        <v>0.2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="0">
-        <v>2</v>
-      </c>
-      <c r="F4" s="0">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0.8</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="0">
-        <v>3</v>
-      </c>
-      <c r="F5" s="0">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>0.8</v>
+      </c>
+      <c r="I5">
+        <v>0.6</v>
+      </c>
+      <c r="J5">
+        <v>0.6</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6" s="0">
-        <v>2</v>
-      </c>
-      <c r="G6" s="0">
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="H6">
+        <v>1.2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="0">
-        <v>3</v>
-      </c>
-      <c r="F7" s="0">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="0">
-        <v>3</v>
-      </c>
-      <c r="F8" s="0">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>0.7</v>
+      </c>
+      <c r="I8">
+        <v>0.2</v>
+      </c>
+      <c r="J8">
+        <v>0.2</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>5</v>
       </c>
-      <c r="F9" s="0">
-        <v>3</v>
-      </c>
-      <c r="G9" s="0">
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="H9">
+        <v>1.5</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="0">
-        <v>2</v>
-      </c>
-      <c r="F10" s="0">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1.3</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="0">
-        <v>2</v>
-      </c>
-      <c r="F11" s="0">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0.5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>4</v>
       </c>
-      <c r="F12" s="0">
-        <v>2</v>
-      </c>
-      <c r="G12" s="0">
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>4</v>
       </c>
-      <c r="F13" s="0">
-        <v>2</v>
-      </c>
-      <c r="G13" s="0">
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+      <c r="H13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="0">
-        <v>3</v>
-      </c>
-      <c r="F14" s="0">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>1.5</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15">
         <v>5</v>
       </c>
-      <c r="F15" s="0">
-        <v>2</v>
-      </c>
-      <c r="G15" s="0">
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>5</v>
       </c>
-      <c r="F16" s="0">
-        <v>2</v>
-      </c>
-      <c r="G16" s="0">
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="0">
-        <v>3</v>
-      </c>
-      <c r="F17" s="0">
-        <v>1</v>
-      </c>
-      <c r="G17" s="0">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="0">
-        <v>3</v>
-      </c>
-      <c r="F18" s="0">
-        <v>1</v>
-      </c>
-      <c r="G18" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0.7</v>
+      </c>
+      <c r="J18">
+        <v>0.7</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="0">
-        <v>3</v>
-      </c>
-      <c r="F19" s="0">
-        <v>1</v>
-      </c>
-      <c r="G19" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>1.2</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20">
         <v>6</v>
       </c>
-      <c r="F20" s="0">
-        <v>3</v>
-      </c>
-      <c r="G20" s="0">
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21">
         <v>6</v>
       </c>
-      <c r="F21" s="0">
-        <v>3</v>
-      </c>
-      <c r="G21" s="0">
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+      <c r="H21">
+        <v>2.5</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>6</v>
       </c>
-      <c r="F22" s="0">
-        <v>3</v>
-      </c>
-      <c r="G22" s="0">
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+      <c r="H22">
+        <v>2.5</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="0">
-        <v>3</v>
-      </c>
-      <c r="F23" s="0">
-        <v>2</v>
-      </c>
-      <c r="G23" s="0">
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+      <c r="H23">
+        <v>1.2</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>5</v>
       </c>
-      <c r="F24" s="0">
-        <v>2</v>
-      </c>
-      <c r="G24" s="0">
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+      <c r="H24">
+        <v>1.4</v>
+      </c>
+      <c r="I24">
+        <v>0.9</v>
+      </c>
+      <c r="J24">
+        <v>0.9</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>6</v>
       </c>
-      <c r="F25" s="0">
-        <v>3</v>
-      </c>
-      <c r="G25" s="0">
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
         <v>6</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+      <c r="H25">
+        <v>1.3</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="0">
-        <v>2</v>
-      </c>
-      <c r="F26" s="0">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>0.7</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="0">
-        <v>1</v>
-      </c>
-      <c r="F27" s="0">
-        <v>1</v>
-      </c>
-      <c r="G27" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28">
         <v>4</v>
       </c>
-      <c r="F28" s="0">
-        <v>2</v>
-      </c>
-      <c r="G28" s="0">
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="0">
-        <v>3</v>
-      </c>
-      <c r="F29" s="0">
-        <v>1</v>
-      </c>
-      <c r="G29" s="0">
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0.6</v>
+      </c>
+      <c r="J29">
+        <v>0.6</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30">
         <v>4</v>
       </c>
-      <c r="F30" s="0">
-        <v>1</v>
-      </c>
-      <c r="G30" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>1.3</v>
+      </c>
+      <c r="I30">
+        <v>0.9</v>
+      </c>
+      <c r="J30">
+        <v>0.9</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31">
         <v>5</v>
       </c>
-      <c r="F31" s="0">
-        <v>3</v>
-      </c>
-      <c r="G31" s="0">
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+      <c r="H31">
+        <v>1.6</v>
+      </c>
+      <c r="I31">
+        <v>0.6</v>
+      </c>
+      <c r="J31">
+        <v>0.6</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="0">
-        <v>3</v>
-      </c>
-      <c r="F32" s="0">
-        <v>2</v>
-      </c>
-      <c r="G32" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>5</v>
       </c>
-      <c r="F33" s="0">
-        <v>2</v>
-      </c>
-      <c r="G33" s="0">
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
+      <c r="H33">
+        <v>1.6</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="0">
+      <c r="E34">
         <v>4</v>
       </c>
-      <c r="F34" s="0">
-        <v>1</v>
-      </c>
-      <c r="G34" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>1.2</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="0">
-        <v>3</v>
-      </c>
-      <c r="F35" s="0">
-        <v>1</v>
-      </c>
-      <c r="G35" s="0">
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
+      <c r="H35">
+        <v>1.3</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="0">
-        <v>3</v>
-      </c>
-      <c r="F36" s="0">
-        <v>1</v>
-      </c>
-      <c r="G36" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>1.3</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="0">
-        <v>3</v>
-      </c>
-      <c r="F37" s="0">
-        <v>1</v>
-      </c>
-      <c r="G37" s="0">
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
+      <c r="H37">
+        <v>0.8</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="0">
+      <c r="E38">
         <v>4</v>
       </c>
-      <c r="F38" s="0">
-        <v>2</v>
-      </c>
-      <c r="G38" s="0">
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
+      <c r="H38">
+        <v>1.6</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="0">
+      <c r="E39">
         <v>6</v>
       </c>
-      <c r="F39" s="0">
-        <v>2</v>
-      </c>
-      <c r="G39" s="0">
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="0">
+      <c r="E40">
         <v>7</v>
       </c>
-      <c r="F40" s="0">
-        <v>3</v>
-      </c>
-      <c r="G40" s="0">
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
         <v>7</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
+      <c r="H40">
+        <v>3.5</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>97</v>
       </c>
-      <c r="E41" s="0">
+      <c r="E41">
         <v>8</v>
       </c>
-      <c r="F41" s="0">
+      <c r="F41">
         <v>4</v>
       </c>
-      <c r="G41" s="0">
+      <c r="G41">
         <v>8</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
+      <c r="H41">
+        <v>4.5</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" t="s">
         <v>99</v>
       </c>
-      <c r="E42" s="0">
+      <c r="E42">
         <v>7</v>
       </c>
-      <c r="F42" s="0">
-        <v>3</v>
-      </c>
-      <c r="G42" s="0">
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
         <v>7</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
+      <c r="H42">
+        <v>2.5</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="0">
+      <c r="E43">
         <v>6</v>
       </c>
-      <c r="F43" s="0">
-        <v>2</v>
-      </c>
-      <c r="G43" s="0">
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
         <v>5</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0" t="s">
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="0">
+      <c r="E44">
         <v>7</v>
       </c>
-      <c r="F44" s="0">
+      <c r="F44">
         <v>4</v>
       </c>
-      <c r="G44" s="0">
+      <c r="G44">
         <v>8</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0" t="s">
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>1.5</v>
+      </c>
+      <c r="J44">
+        <v>1.5</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="0">
+      <c r="E45">
         <v>8</v>
       </c>
-      <c r="F45" s="0">
+      <c r="F45">
         <v>4</v>
       </c>
-      <c r="G45" s="0">
+      <c r="G45">
         <v>8</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0" t="s">
+      <c r="H45">
+        <v>4.5</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>106</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>107</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" t="s">
         <v>108</v>
       </c>
-      <c r="E46" s="0">
+      <c r="E46">
         <v>4</v>
       </c>
-      <c r="F46" s="0">
-        <v>2</v>
-      </c>
-      <c r="G46" s="0">
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0" t="s">
+      <c r="H46">
+        <v>1.5</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="0">
+      <c r="E47">
         <v>5</v>
       </c>
-      <c r="F47" s="0">
-        <v>2</v>
-      </c>
-      <c r="G47" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0" t="s">
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" t="s">
         <v>112</v>
       </c>
-      <c r="E48" s="0">
-        <v>3</v>
-      </c>
-      <c r="F48" s="0">
-        <v>1</v>
-      </c>
-      <c r="G48" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0" t="s">
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>1.8</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" t="s">
         <v>114</v>
       </c>
-      <c r="E49" s="0">
+      <c r="E49">
         <v>4</v>
       </c>
-      <c r="F49" s="0">
-        <v>2</v>
-      </c>
-      <c r="G49" s="0">
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0" t="s">
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0.9</v>
+      </c>
+      <c r="J49">
+        <v>0.9</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" t="s">
         <v>116</v>
       </c>
-      <c r="E50" s="0">
-        <v>2</v>
-      </c>
-      <c r="F50" s="0">
-        <v>1</v>
-      </c>
-      <c r="G50" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0" t="s">
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>117</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" t="s">
         <v>118</v>
       </c>
-      <c r="E51" s="0">
-        <v>3</v>
-      </c>
-      <c r="F51" s="0">
-        <v>1</v>
-      </c>
-      <c r="G51" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0" t="s">
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="0">
-        <v>2</v>
-      </c>
-      <c r="F52" s="0">
-        <v>0</v>
-      </c>
-      <c r="G52" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0" t="s">
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>122</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" t="s">
         <v>123</v>
       </c>
-      <c r="E53" s="0">
-        <v>2</v>
-      </c>
-      <c r="F53" s="0">
-        <v>0</v>
-      </c>
-      <c r="G53" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0" t="s">
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="0">
-        <v>2</v>
-      </c>
-      <c r="F54" s="0">
-        <v>1</v>
-      </c>
-      <c r="G54" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0" t="s">
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>1.2</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" t="s">
         <v>107</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" t="s">
         <v>127</v>
       </c>
-      <c r="E55" s="0">
-        <v>3</v>
-      </c>
-      <c r="F55" s="0">
-        <v>1</v>
-      </c>
-      <c r="G55" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0" t="s">
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>1.2</v>
+      </c>
+      <c r="I55">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J55">
+        <v>0.2</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" t="s">
         <v>107</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" t="s">
         <v>129</v>
       </c>
-      <c r="E56" s="0">
-        <v>2</v>
-      </c>
-      <c r="F56" s="0">
-        <v>1</v>
-      </c>
-      <c r="G56" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0" t="s">
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>130</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" t="s">
         <v>131</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="0">
-        <v>3</v>
-      </c>
-      <c r="F57" s="0">
-        <v>1</v>
-      </c>
-      <c r="G57" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0" t="s">
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>1.2</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" t="s">
         <v>107</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" t="s">
         <v>134</v>
       </c>
-      <c r="E58" s="0">
-        <v>3</v>
-      </c>
-      <c r="F58" s="0">
-        <v>1</v>
-      </c>
-      <c r="G58" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0" t="s">
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>0.8</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>135</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" t="s">
         <v>69</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" t="s">
         <v>136</v>
       </c>
-      <c r="E59" s="0">
+      <c r="E59">
         <v>5</v>
       </c>
-      <c r="F59" s="0">
-        <v>1</v>
-      </c>
-      <c r="G59" s="0">
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0" t="s">
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>137</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" t="s">
         <v>138</v>
       </c>
-      <c r="E60" s="0">
+      <c r="E60">
         <v>7</v>
       </c>
-      <c r="F60" s="0">
+      <c r="F60">
         <v>4</v>
       </c>
-      <c r="G60" s="0">
+      <c r="G60">
         <v>7</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0" t="s">
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>139</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" t="s">
         <v>107</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" t="s">
         <v>140</v>
       </c>
-      <c r="E61" s="0">
+      <c r="E61">
         <v>6</v>
       </c>
-      <c r="F61" s="0">
-        <v>3</v>
-      </c>
-      <c r="G61" s="0">
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
         <v>6</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0" t="s">
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>141</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" t="s">
         <v>107</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" t="s">
         <v>142</v>
       </c>
-      <c r="E62" s="0">
+      <c r="E62">
         <v>6</v>
       </c>
-      <c r="F62" s="0">
-        <v>3</v>
-      </c>
-      <c r="G62" s="0">
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
         <v>7</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
+      <c r="H62">
+        <v>1.3</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>143</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>107</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="0">
+      <c r="E63">
         <v>4</v>
       </c>
-      <c r="F63" s="0">
-        <v>1</v>
-      </c>
-      <c r="G63" s="0">
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
         <v>4</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0" t="s">
+      <c r="H63">
+        <v>2.5</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>145</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" t="s">
         <v>146</v>
       </c>
-      <c r="E64" s="0">
+      <c r="E64">
         <v>6</v>
       </c>
-      <c r="F64" s="0">
-        <v>3</v>
-      </c>
-      <c r="G64" s="0">
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
         <v>6</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0" t="s">
+      <c r="H64">
+        <v>1.2</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>0.5</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>147</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" t="s">
         <v>107</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" t="s">
         <v>148</v>
       </c>
-      <c r="E65" s="0">
+      <c r="E65">
         <v>7</v>
       </c>
-      <c r="F65" s="0">
+      <c r="F65">
         <v>4</v>
       </c>
-      <c r="G65" s="0">
+      <c r="G65">
         <v>7</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0" t="s">
+      <c r="H65">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>149</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" t="s">
         <v>150</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" t="s">
         <v>151</v>
       </c>
-      <c r="E66" s="0">
-        <v>3</v>
-      </c>
-      <c r="F66" s="0">
-        <v>1</v>
-      </c>
-      <c r="G66" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="0" t="s">
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>0.9</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>152</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" t="s">
         <v>69</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" t="s">
         <v>153</v>
       </c>
-      <c r="E67" s="0">
-        <v>3</v>
-      </c>
-      <c r="F67" s="0">
-        <v>1</v>
-      </c>
-      <c r="G67" s="0">
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
         <v>4</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
+      <c r="H67">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>154</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" t="s">
         <v>150</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" t="s">
         <v>155</v>
       </c>
-      <c r="E68" s="0">
-        <v>3</v>
-      </c>
-      <c r="F68" s="0">
-        <v>1</v>
-      </c>
-      <c r="G68" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="0" t="s">
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>0.6</v>
+      </c>
+      <c r="J68">
+        <v>0.6</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>156</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" t="s">
         <v>69</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" t="s">
         <v>157</v>
       </c>
-      <c r="E69" s="0">
+      <c r="E69">
         <v>4</v>
       </c>
-      <c r="F69" s="0">
-        <v>2</v>
-      </c>
-      <c r="G69" s="0">
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
         <v>4</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0" t="s">
+      <c r="H69">
+        <v>1.3</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" t="s">
         <v>150</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" t="s">
         <v>159</v>
       </c>
-      <c r="E70" s="0">
-        <v>2</v>
-      </c>
-      <c r="F70" s="0">
-        <v>1</v>
-      </c>
-      <c r="G70" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="0" t="s">
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>160</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" t="s">
         <v>69</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" t="s">
         <v>161</v>
       </c>
-      <c r="E71" s="0">
-        <v>2</v>
-      </c>
-      <c r="F71" s="0">
-        <v>1</v>
-      </c>
-      <c r="G71" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="0" t="s">
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>162</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>24</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" t="s">
         <v>163</v>
       </c>
-      <c r="E72" s="0">
-        <v>3</v>
-      </c>
-      <c r="F72" s="0">
-        <v>1</v>
-      </c>
-      <c r="G72" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>0.9</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>164</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>35</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" t="s">
         <v>150</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" t="s">
         <v>165</v>
       </c>
-      <c r="E73" s="0">
+      <c r="E73">
         <v>4</v>
       </c>
-      <c r="F73" s="0">
-        <v>2</v>
-      </c>
-      <c r="G73" s="0">
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
         <v>4</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="0" t="s">
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>166</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" t="s">
         <v>69</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" t="s">
         <v>167</v>
       </c>
-      <c r="E74" s="0">
+      <c r="E74">
         <v>5</v>
       </c>
-      <c r="F74" s="0">
-        <v>2</v>
-      </c>
-      <c r="G74" s="0">
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
         <v>5</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="0" t="s">
+      <c r="H74">
+        <v>1.5</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>168</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>24</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" t="s">
         <v>169</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" t="s">
         <v>170</v>
       </c>
-      <c r="E75" s="0">
+      <c r="E75">
         <v>5</v>
       </c>
-      <c r="F75" s="0">
-        <v>2</v>
-      </c>
-      <c r="G75" s="0">
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
         <v>5</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="0" t="s">
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>0.2</v>
+      </c>
+      <c r="J75">
+        <v>0.2</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>171</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" t="s">
         <v>21</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" t="s">
         <v>172</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" t="s">
         <v>173</v>
       </c>
-      <c r="E76" s="0">
+      <c r="E76">
         <v>5</v>
       </c>
-      <c r="F76" s="0">
-        <v>2</v>
-      </c>
-      <c r="G76" s="0">
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
         <v>5</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="0" t="s">
+      <c r="H76">
+        <v>1.7</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>174</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" t="s">
         <v>175</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" t="s">
         <v>176</v>
       </c>
-      <c r="E77" s="0">
+      <c r="E77">
         <v>5</v>
       </c>
-      <c r="F77" s="0">
-        <v>2</v>
-      </c>
-      <c r="G77" s="0">
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
         <v>5</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="0" t="s">
+      <c r="H77">
+        <v>1.25</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>177</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" t="s">
         <v>178</v>
       </c>
-      <c r="E78" s="0">
+      <c r="E78">
         <v>4</v>
       </c>
-      <c r="F78" s="0">
-        <v>1</v>
-      </c>
-      <c r="G78" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="0" t="s">
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>1.2</v>
+      </c>
+      <c r="I78">
+        <v>0.6</v>
+      </c>
+      <c r="J78">
+        <v>0.6</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>179</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>21</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" t="s">
         <v>150</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" t="s">
         <v>180</v>
       </c>
-      <c r="E79" s="0">
-        <v>3</v>
-      </c>
-      <c r="F79" s="0">
-        <v>1</v>
-      </c>
-      <c r="G79" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="0" t="s">
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>0.9</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>181</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>24</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" t="s">
         <v>150</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" t="s">
         <v>182</v>
       </c>
-      <c r="E80" s="0">
+      <c r="E80">
         <v>4</v>
       </c>
-      <c r="F80" s="0">
-        <v>1</v>
-      </c>
-      <c r="G80" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="0" t="s">
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>183</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" t="s">
         <v>150</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" t="s">
         <v>184</v>
       </c>
-      <c r="E81" s="0">
+      <c r="E81">
         <v>4</v>
       </c>
-      <c r="F81" s="0">
-        <v>2</v>
-      </c>
-      <c r="G81" s="0">
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
         <v>4</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="0" t="s">
+      <c r="H81">
+        <v>1.6</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>185</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>21</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" t="s">
         <v>186</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" t="s">
         <v>187</v>
       </c>
-      <c r="E82" s="0">
+      <c r="E82">
         <v>6</v>
       </c>
-      <c r="F82" s="0">
-        <v>3</v>
-      </c>
-      <c r="G82" s="0">
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82">
         <v>7</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="0" t="s">
+      <c r="H82">
+        <v>2.5</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1.33</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>188</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" t="s">
         <v>186</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" t="s">
         <v>189</v>
       </c>
-      <c r="E83" s="0">
+      <c r="E83">
         <v>6</v>
       </c>
-      <c r="F83" s="0">
-        <v>3</v>
-      </c>
-      <c r="G83" s="0">
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
         <v>6</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="0" t="s">
+      <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>1.8</v>
+      </c>
+      <c r="J83">
+        <v>1.8</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>190</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>24</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" t="s">
         <v>186</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" t="s">
         <v>191</v>
       </c>
-      <c r="E84" s="0">
+      <c r="E84">
         <v>6</v>
       </c>
-      <c r="F84" s="0">
-        <v>3</v>
-      </c>
-      <c r="G84" s="0">
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
         <v>6</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="0" t="s">
+      <c r="H84">
+        <v>1.6</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>192</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>35</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" t="s">
         <v>186</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" t="s">
         <v>193</v>
       </c>
-      <c r="E85" s="0">
+      <c r="E85">
         <v>6</v>
       </c>
-      <c r="F85" s="0">
-        <v>3</v>
-      </c>
-      <c r="G85" s="0">
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85">
         <v>6</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="0" t="s">
+      <c r="H85">
+        <v>1.2</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>194</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>18</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" t="s">
         <v>107</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" t="s">
         <v>195</v>
       </c>
-      <c r="E86" s="0">
+      <c r="E86">
         <v>4</v>
       </c>
-      <c r="F86" s="0">
-        <v>2</v>
-      </c>
-      <c r="G86" s="0">
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
         <v>4</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="0" t="s">
+      <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <v>0.6</v>
+      </c>
+      <c r="J86">
+        <v>0.6</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>196</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" t="s">
         <v>24</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" t="s">
         <v>197</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" t="s">
         <v>198</v>
       </c>
-      <c r="E87" s="0">
+      <c r="E87">
         <v>4</v>
       </c>
-      <c r="F87" s="0">
-        <v>2</v>
-      </c>
-      <c r="G87" s="0">
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87">
         <v>4</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="0" t="s">
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>0.5</v>
+      </c>
+      <c r="J87">
+        <v>0.5</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>199</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" t="s">
         <v>35</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" t="s">
         <v>199</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" t="s">
         <v>200</v>
       </c>
-      <c r="E88" s="0">
-        <v>3</v>
-      </c>
-      <c r="F88" s="0">
-        <v>1</v>
-      </c>
-      <c r="G88" s="0">
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
         <v>4</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="0" t="s">
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>201</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" t="s">
         <v>202</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" t="s">
         <v>203</v>
       </c>
-      <c r="E89" s="0">
+      <c r="E89">
         <v>6</v>
       </c>
-      <c r="F89" s="0">
-        <v>2</v>
-      </c>
-      <c r="G89" s="0">
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="0" t="s">
+      <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
+        <v>1.5</v>
+      </c>
+      <c r="J89">
+        <v>1.5</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>204</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" t="s">
         <v>21</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" t="s">
         <v>202</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" t="s">
         <v>205</v>
       </c>
-      <c r="E90" s="0">
+      <c r="E90">
         <v>5</v>
       </c>
-      <c r="F90" s="0">
-        <v>2</v>
-      </c>
-      <c r="G90" s="0">
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
         <v>5</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="0" t="s">
+      <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>206</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" t="s">
         <v>21</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" t="s">
         <v>207</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" t="s">
         <v>208</v>
       </c>
-      <c r="E91" s="0">
+      <c r="E91">
         <v>4</v>
       </c>
-      <c r="F91" s="0">
-        <v>2</v>
-      </c>
-      <c r="G91" s="0">
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
         <v>5</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="0" t="s">
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>209</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" t="s">
         <v>210</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" t="s">
         <v>211</v>
       </c>
-      <c r="E92" s="0">
+      <c r="E92">
         <v>4</v>
       </c>
-      <c r="F92" s="0">
-        <v>1</v>
-      </c>
-      <c r="G92" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="0" t="s">
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>2</v>
+      </c>
+      <c r="H92">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>212</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" t="s">
         <v>24</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" t="s">
         <v>202</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" t="s">
         <v>213</v>
       </c>
-      <c r="E93" s="0">
+      <c r="E93">
         <v>5</v>
       </c>
-      <c r="F93" s="0">
-        <v>2</v>
-      </c>
-      <c r="G93" s="0">
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
         <v>5</v>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="0" t="s">
+      <c r="H93">
+        <v>1.8</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>214</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" t="s">
         <v>21</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" t="s">
         <v>202</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" t="s">
         <v>215</v>
       </c>
-      <c r="E94" s="0">
-        <v>3</v>
-      </c>
-      <c r="F94" s="0">
-        <v>1</v>
-      </c>
-      <c r="G94" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="0" t="s">
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>1.5</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>216</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" t="s">
         <v>217</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" t="s">
         <v>218</v>
       </c>
-      <c r="E95" s="0">
-        <v>3</v>
-      </c>
-      <c r="F95" s="0">
-        <v>1</v>
-      </c>
-      <c r="G95" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="0" t="s">
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>1.6</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>219</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" t="s">
         <v>35</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" t="s">
         <v>220</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" t="s">
         <v>221</v>
       </c>
-      <c r="E96" s="0">
-        <v>2</v>
-      </c>
-      <c r="F96" s="0">
-        <v>1</v>
-      </c>
-      <c r="G96" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="0" t="s">
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96">
+        <v>0.85</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>222</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" t="s">
         <v>21</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" t="s">
         <v>207</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" t="s">
         <v>223</v>
       </c>
-      <c r="E97" s="0">
-        <v>3</v>
-      </c>
-      <c r="F97" s="0">
-        <v>1</v>
-      </c>
-      <c r="G97" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="0" t="s">
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+      <c r="H97">
+        <v>1.2</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>224</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" t="s">
         <v>24</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" t="s">
         <v>202</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" t="s">
         <v>225</v>
       </c>
-      <c r="E98" s="0">
-        <v>3</v>
-      </c>
-      <c r="F98" s="0">
-        <v>1</v>
-      </c>
-      <c r="G98" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="0" t="s">
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+      <c r="H98">
+        <v>1.8</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>226</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" t="s">
         <v>202</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" t="s">
         <v>227</v>
       </c>
-      <c r="E99" s="0">
+      <c r="E99">
         <v>8</v>
       </c>
-      <c r="F99" s="0">
+      <c r="F99">
         <v>5</v>
       </c>
-      <c r="G99" s="0">
+      <c r="G99">
         <v>10</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="0" t="s">
+      <c r="H99">
+        <v>4</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99">
+        <v>2</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>228</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" t="s">
         <v>21</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" t="s">
         <v>202</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" t="s">
         <v>229</v>
       </c>
-      <c r="E100" s="0">
+      <c r="E100">
         <v>6</v>
       </c>
-      <c r="F100" s="0">
-        <v>3</v>
-      </c>
-      <c r="G100" s="0">
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
         <v>6</v>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="0" t="s">
+      <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>230</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" t="s">
         <v>35</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" t="s">
         <v>202</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" t="s">
         <v>231</v>
       </c>
-      <c r="E101" s="0">
+      <c r="E101">
         <v>6</v>
       </c>
-      <c r="F101" s="0">
-        <v>3</v>
-      </c>
-      <c r="G101" s="0">
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101">
         <v>6</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="0" t="s">
+      <c r="H101">
+        <v>1.8</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>232</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" t="s">
         <v>24</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" t="s">
         <v>202</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" t="s">
         <v>233</v>
       </c>
-      <c r="E102" s="0">
+      <c r="E102">
         <v>5</v>
       </c>
-      <c r="F102" s="0">
-        <v>2</v>
-      </c>
-      <c r="G102" s="0">
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
         <v>4</v>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="0" t="s">
+      <c r="H102">
+        <v>1.6</v>
+      </c>
+      <c r="I102">
+        <v>1.2</v>
+      </c>
+      <c r="J102">
+        <v>1.2</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>234</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" t="s">
         <v>24</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" t="s">
         <v>202</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" t="s">
         <v>235</v>
       </c>
-      <c r="E103" s="0">
+      <c r="E103">
         <v>6</v>
       </c>
-      <c r="F103" s="0">
-        <v>2</v>
-      </c>
-      <c r="G103" s="0">
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
         <v>5</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="0" t="s">
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>236</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" t="s">
         <v>18</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" t="s">
         <v>202</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" t="s">
         <v>237</v>
       </c>
-      <c r="E104" s="0">
+      <c r="E104">
         <v>5</v>
       </c>
-      <c r="F104" s="0">
-        <v>2</v>
-      </c>
-      <c r="G104" s="0">
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104">
         <v>4</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="0" t="s">
+      <c r="H104">
+        <v>2.4</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104">
+        <v>2</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>238</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" t="s">
         <v>35</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" t="s">
         <v>202</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" t="s">
         <v>239</v>
       </c>
-      <c r="E105" s="0">
+      <c r="E105">
         <v>8</v>
       </c>
-      <c r="F105" s="0">
+      <c r="F105">
         <v>5</v>
       </c>
-      <c r="G105" s="0">
+      <c r="G105">
         <v>10</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="0" t="s">
+      <c r="H105">
+        <v>4.5</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>240</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" t="s">
         <v>241</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" t="s">
         <v>9</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" t="s">
         <v>242</v>
       </c>
-      <c r="E106" s="0">
-        <v>0</v>
-      </c>
-      <c r="F106" s="0">
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
         <v>-1</v>
       </c>
-      <c r="G106" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="0" t="s">
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>243</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" t="s">
         <v>18</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" t="s">
         <v>220</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" t="s">
         <v>244</v>
       </c>
-      <c r="E107" s="0">
-        <v>3</v>
-      </c>
-      <c r="F107" s="0">
-        <v>2</v>
-      </c>
-      <c r="G107" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="0" t="s">
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>3</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>245</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" t="s">
         <v>24</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" t="s">
         <v>220</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" t="s">
         <v>246</v>
       </c>
-      <c r="E108" s="0">
+      <c r="E108">
         <v>4</v>
       </c>
-      <c r="F108" s="0">
-        <v>2</v>
-      </c>
-      <c r="G108" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="0" t="s">
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0.5</v>
+      </c>
+      <c r="J108">
+        <v>0.5</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>247</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" t="s">
         <v>18</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" t="s">
         <v>220</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" t="s">
         <v>248</v>
       </c>
-      <c r="E109" s="0">
+      <c r="E109">
         <v>4</v>
       </c>
-      <c r="F109" s="0">
-        <v>2</v>
-      </c>
-      <c r="G109" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="0" t="s">
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>3</v>
+      </c>
+      <c r="H109">
+        <v>1.2</v>
+      </c>
+      <c r="I109">
+        <v>0.6</v>
+      </c>
+      <c r="J109">
+        <v>0.6</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>249</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" t="s">
         <v>249</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" t="s">
         <v>250</v>
       </c>
-      <c r="E110" s="0">
-        <v>1</v>
-      </c>
-      <c r="F110" s="0">
-        <v>0</v>
-      </c>
-      <c r="G110" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="0" t="s">
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>0.4</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>251</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" t="s">
         <v>18</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" t="s">
         <v>220</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" t="s">
         <v>252</v>
       </c>
-      <c r="E111" s="0">
-        <v>3</v>
-      </c>
-      <c r="F111" s="0">
-        <v>1</v>
-      </c>
-      <c r="G111" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="0" t="s">
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>3</v>
+      </c>
+      <c r="H111">
+        <v>1.3</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>253</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" t="s">
         <v>35</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" t="s">
         <v>254</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" t="s">
         <v>255</v>
       </c>
-      <c r="E112" s="0">
-        <v>2</v>
-      </c>
-      <c r="F112" s="0">
-        <v>1</v>
-      </c>
-      <c r="G112" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="0" t="s">
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+      <c r="H112">
+        <v>0.9</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>256</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" t="s">
         <v>21</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" t="s">
         <v>220</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" t="s">
         <v>257</v>
       </c>
-      <c r="E113" s="0">
+      <c r="E113">
         <v>4</v>
       </c>
-      <c r="F113" s="0">
-        <v>1</v>
-      </c>
-      <c r="G113" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="0" t="s">
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>2</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>258</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" t="s">
         <v>24</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" t="s">
         <v>220</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" t="s">
         <v>259</v>
       </c>
-      <c r="E114" s="0">
-        <v>3</v>
-      </c>
-      <c r="F114" s="0">
-        <v>1</v>
-      </c>
-      <c r="G114" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="0" t="s">
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>3</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>260</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" t="s">
         <v>24</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" t="s">
         <v>220</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" t="s">
         <v>261</v>
       </c>
-      <c r="E115" s="0">
-        <v>2</v>
-      </c>
-      <c r="F115" s="0">
-        <v>1</v>
-      </c>
-      <c r="G115" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="0" t="s">
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>3</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>0.8</v>
+      </c>
+      <c r="J115">
+        <v>0.8</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>262</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" t="s">
         <v>21</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" t="s">
         <v>217</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" t="s">
         <v>263</v>
       </c>
-      <c r="E116" s="0">
-        <v>3</v>
-      </c>
-      <c r="F116" s="0">
-        <v>1</v>
-      </c>
-      <c r="G116" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="0" t="s">
+      <c r="E116">
+        <v>3</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>3</v>
+      </c>
+      <c r="H116">
+        <v>1.2</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>264</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" t="s">
         <v>24</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" t="s">
         <v>220</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" t="s">
         <v>265</v>
       </c>
-      <c r="E117" s="0">
-        <v>3</v>
-      </c>
-      <c r="F117" s="0">
-        <v>1</v>
-      </c>
-      <c r="G117" s="0">
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="0" t="s">
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>266</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" t="s">
         <v>35</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" t="s">
         <v>266</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D118" t="s">
         <v>267</v>
       </c>
-      <c r="E118" s="0">
+      <c r="E118">
         <v>5</v>
       </c>
-      <c r="F118" s="0">
-        <v>2</v>
-      </c>
-      <c r="G118" s="0">
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118">
         <v>4</v>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="0" t="s">
+      <c r="H118">
+        <v>3.5</v>
+      </c>
+      <c r="I118">
+        <v>3.5</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>268</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" t="s">
         <v>35</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" t="s">
         <v>122</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" t="s">
         <v>269</v>
       </c>
-      <c r="E119" s="0">
+      <c r="E119">
         <v>4</v>
       </c>
-      <c r="F119" s="0">
-        <v>2</v>
-      </c>
-      <c r="G119" s="0">
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119">
         <v>4</v>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="0" t="s">
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>270</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" t="s">
         <v>21</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" t="s">
         <v>217</v>
       </c>
-      <c r="D120" s="0" t="s">
+      <c r="D120" t="s">
         <v>271</v>
       </c>
-      <c r="E120" s="0">
+      <c r="E120">
         <v>5</v>
       </c>
-      <c r="F120" s="0">
-        <v>2</v>
-      </c>
-      <c r="G120" s="0">
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120">
         <v>6</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="0" t="s">
+      <c r="H120">
+        <v>2</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>272</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" t="s">
         <v>24</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" t="s">
         <v>220</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" t="s">
         <v>273</v>
       </c>
-      <c r="E121" s="0">
+      <c r="E121">
         <v>7</v>
       </c>
-      <c r="F121" s="0">
+      <c r="F121">
         <v>4</v>
       </c>
-      <c r="G121" s="0">
+      <c r="G121">
         <v>7</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="0" t="s">
+      <c r="H121">
+        <v>3</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>274</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" t="s">
         <v>18</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" t="s">
         <v>220</v>
       </c>
-      <c r="D122" s="0" t="s">
+      <c r="D122" t="s">
         <v>275</v>
       </c>
-      <c r="E122" s="0">
+      <c r="E122">
         <v>7</v>
       </c>
-      <c r="F122" s="0">
-        <v>3</v>
-      </c>
-      <c r="G122" s="0">
+      <c r="F122">
+        <v>3</v>
+      </c>
+      <c r="G122">
         <v>6</v>
       </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="0" t="s">
+      <c r="H122">
+        <v>4</v>
+      </c>
+      <c r="I122">
+        <v>3</v>
+      </c>
+      <c r="J122">
+        <v>3</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>276</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" t="s">
         <v>35</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" t="s">
         <v>220</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" t="s">
         <v>277</v>
       </c>
-      <c r="E123" s="0">
+      <c r="E123">
         <v>7</v>
       </c>
-      <c r="F123" s="0">
+      <c r="F123">
         <v>4</v>
       </c>
-      <c r="G123" s="0">
+      <c r="G123">
         <v>8</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="0" t="s">
+      <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>278</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" t="s">
         <v>21</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" t="s">
         <v>217</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" t="s">
         <v>279</v>
       </c>
-      <c r="E124" s="0">
+      <c r="E124">
         <v>6</v>
       </c>
-      <c r="F124" s="0">
-        <v>3</v>
-      </c>
-      <c r="G124" s="0">
+      <c r="F124">
+        <v>3</v>
+      </c>
+      <c r="G124">
         <v>6</v>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="0" t="s">
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>0.5</v>
+      </c>
+      <c r="J124">
+        <v>0.5</v>
+      </c>
+      <c r="K124">
+        <v>0.5</v>
+      </c>
+      <c r="L124">
+        <v>0.2</v>
+      </c>
+      <c r="M124">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>280</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" t="s">
         <v>18</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" t="s">
         <v>220</v>
       </c>
-      <c r="D125" s="0" t="s">
+      <c r="D125" t="s">
         <v>281</v>
       </c>
-      <c r="E125" s="0">
+      <c r="E125">
         <v>5</v>
       </c>
-      <c r="F125" s="0">
-        <v>3</v>
-      </c>
-      <c r="G125" s="0">
+      <c r="F125">
+        <v>3</v>
+      </c>
+      <c r="G125">
         <v>6</v>
       </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="0" t="s">
+      <c r="H125">
+        <v>2</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>2</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>282</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" t="s">
         <v>21</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" t="s">
         <v>220</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="D126" t="s">
         <v>283</v>
       </c>
-      <c r="E126" s="0">
+      <c r="E126">
         <v>7</v>
       </c>
-      <c r="F126" s="0">
+      <c r="F126">
         <v>4</v>
       </c>
-      <c r="G126" s="0">
+      <c r="G126">
         <v>9</v>
       </c>
+      <c r="H126">
+        <v>2</v>
+      </c>
+      <c r="I126">
+        <v>0.5</v>
+      </c>
+      <c r="J126">
+        <v>0.5</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G126"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TUnderdark/Resources/Cards.xlsx
+++ b/TUnderdark/Resources/Cards.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12885"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cards!$A$1:$G$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cards!$A$1:$N$126</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="291">
   <si>
     <t>SpecificType</t>
   </si>
@@ -892,6 +892,9 @@
   </si>
   <si>
     <t>DrawSpeed</t>
+  </si>
+  <si>
+    <t>Deploy</t>
   </si>
 </sst>
 </file>
@@ -1206,11 +1209,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L108" sqref="L108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,7 +1230,7 @@
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1267,8 +1270,11 @@
       <c r="M1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1308,8 +1314,11 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1349,8 +1358,11 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1390,8 +1402,11 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1431,8 +1446,11 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1472,8 +1490,11 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1513,8 +1534,11 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1554,8 +1578,11 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1595,8 +1622,11 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1636,8 +1666,11 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1677,8 +1710,11 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1754,11 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1759,8 +1798,11 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1800,8 +1842,11 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1841,8 +1886,11 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1882,8 +1930,11 @@
       <c r="M16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1923,8 +1974,11 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1964,8 +2018,11 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -2005,8 +2062,11 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -2046,8 +2106,11 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -2087,8 +2150,11 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -2128,8 +2194,11 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -2169,8 +2238,11 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -2210,8 +2282,11 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -2251,8 +2326,11 @@
       <c r="M25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -2292,8 +2370,11 @@
       <c r="M26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -2333,8 +2414,11 @@
       <c r="M27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -2374,8 +2458,11 @@
       <c r="M28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -2415,8 +2502,11 @@
       <c r="M29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -2456,8 +2546,11 @@
       <c r="M30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -2497,8 +2590,11 @@
       <c r="M31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="M32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -2579,8 +2678,11 @@
       <c r="M33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2620,8 +2722,11 @@
       <c r="M34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -2661,8 +2766,11 @@
       <c r="M35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -2702,8 +2810,11 @@
       <c r="M36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -2743,8 +2854,11 @@
       <c r="M37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -2784,8 +2898,11 @@
       <c r="M38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -2825,8 +2942,11 @@
       <c r="M39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -2866,8 +2986,11 @@
       <c r="M40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -2907,8 +3030,11 @@
       <c r="M41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -2948,8 +3074,11 @@
       <c r="M42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -2989,8 +3118,11 @@
       <c r="M43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -3030,8 +3162,11 @@
       <c r="M44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -3071,8 +3206,11 @@
       <c r="M45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -3112,8 +3250,11 @@
       <c r="M46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -3153,8 +3294,11 @@
       <c r="M47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>111</v>
       </c>
@@ -3194,8 +3338,11 @@
       <c r="M48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -3235,8 +3382,11 @@
       <c r="M49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -3276,8 +3426,11 @@
       <c r="M50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>117</v>
       </c>
@@ -3317,8 +3470,11 @@
       <c r="M51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -3358,8 +3514,11 @@
       <c r="M52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -3399,8 +3558,11 @@
       <c r="M53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>124</v>
       </c>
@@ -3440,8 +3602,11 @@
       <c r="M54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>126</v>
       </c>
@@ -3481,8 +3646,11 @@
       <c r="M55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>128</v>
       </c>
@@ -3522,8 +3690,11 @@
       <c r="M56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>130</v>
       </c>
@@ -3563,8 +3734,11 @@
       <c r="M57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>133</v>
       </c>
@@ -3604,8 +3778,11 @@
       <c r="M58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>135</v>
       </c>
@@ -3645,8 +3822,11 @@
       <c r="M59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>137</v>
       </c>
@@ -3686,8 +3866,11 @@
       <c r="M60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>139</v>
       </c>
@@ -3727,8 +3910,11 @@
       <c r="M61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>141</v>
       </c>
@@ -3768,8 +3954,11 @@
       <c r="M62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>143</v>
       </c>
@@ -3809,8 +3998,11 @@
       <c r="M63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>145</v>
       </c>
@@ -3850,8 +4042,11 @@
       <c r="M64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>147</v>
       </c>
@@ -3891,8 +4086,11 @@
       <c r="M65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>149</v>
       </c>
@@ -3932,8 +4130,11 @@
       <c r="M66">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>152</v>
       </c>
@@ -3973,8 +4174,11 @@
       <c r="M67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>154</v>
       </c>
@@ -4014,8 +4218,11 @@
       <c r="M68">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>156</v>
       </c>
@@ -4055,8 +4262,11 @@
       <c r="M69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N69">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>158</v>
       </c>
@@ -4096,8 +4306,11 @@
       <c r="M70">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>160</v>
       </c>
@@ -4137,8 +4350,11 @@
       <c r="M71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>162</v>
       </c>
@@ -4178,8 +4394,11 @@
       <c r="M72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>164</v>
       </c>
@@ -4219,8 +4438,11 @@
       <c r="M73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>166</v>
       </c>
@@ -4260,8 +4482,11 @@
       <c r="M74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>168</v>
       </c>
@@ -4301,8 +4526,11 @@
       <c r="M75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>171</v>
       </c>
@@ -4342,8 +4570,11 @@
       <c r="M76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>174</v>
       </c>
@@ -4383,8 +4614,11 @@
       <c r="M77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>177</v>
       </c>
@@ -4424,8 +4658,11 @@
       <c r="M78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>179</v>
       </c>
@@ -4465,8 +4702,11 @@
       <c r="M79">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>181</v>
       </c>
@@ -4506,8 +4746,11 @@
       <c r="M80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>183</v>
       </c>
@@ -4547,8 +4790,11 @@
       <c r="M81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>185</v>
       </c>
@@ -4588,8 +4834,11 @@
       <c r="M82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>188</v>
       </c>
@@ -4629,8 +4878,11 @@
       <c r="M83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>190</v>
       </c>
@@ -4670,8 +4922,11 @@
       <c r="M84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>192</v>
       </c>
@@ -4711,8 +4966,11 @@
       <c r="M85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>194</v>
       </c>
@@ -4752,8 +5010,11 @@
       <c r="M86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>196</v>
       </c>
@@ -4793,8 +5054,11 @@
       <c r="M87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>199</v>
       </c>
@@ -4834,8 +5098,11 @@
       <c r="M88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>201</v>
       </c>
@@ -4875,8 +5142,11 @@
       <c r="M89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>204</v>
       </c>
@@ -4916,8 +5186,11 @@
       <c r="M90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>206</v>
       </c>
@@ -4957,8 +5230,11 @@
       <c r="M91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>209</v>
       </c>
@@ -4998,8 +5274,11 @@
       <c r="M92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>212</v>
       </c>
@@ -5039,8 +5318,11 @@
       <c r="M93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>214</v>
       </c>
@@ -5080,8 +5362,11 @@
       <c r="M94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>216</v>
       </c>
@@ -5121,8 +5406,11 @@
       <c r="M95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>219</v>
       </c>
@@ -5162,8 +5450,11 @@
       <c r="M96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>222</v>
       </c>
@@ -5203,8 +5494,11 @@
       <c r="M97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>224</v>
       </c>
@@ -5244,8 +5538,11 @@
       <c r="M98">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>226</v>
       </c>
@@ -5285,8 +5582,11 @@
       <c r="M99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>228</v>
       </c>
@@ -5326,8 +5626,11 @@
       <c r="M100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>230</v>
       </c>
@@ -5367,8 +5670,11 @@
       <c r="M101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>232</v>
       </c>
@@ -5408,8 +5714,11 @@
       <c r="M102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>234</v>
       </c>
@@ -5449,8 +5758,11 @@
       <c r="M103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>236</v>
       </c>
@@ -5490,8 +5802,11 @@
       <c r="M104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>238</v>
       </c>
@@ -5531,8 +5846,11 @@
       <c r="M105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>240</v>
       </c>
@@ -5572,8 +5890,11 @@
       <c r="M106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>243</v>
       </c>
@@ -5613,8 +5934,11 @@
       <c r="M107">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>245</v>
       </c>
@@ -5654,8 +5978,11 @@
       <c r="M108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>247</v>
       </c>
@@ -5695,8 +6022,11 @@
       <c r="M109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>249</v>
       </c>
@@ -5736,8 +6066,11 @@
       <c r="M110">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>251</v>
       </c>
@@ -5777,8 +6110,11 @@
       <c r="M111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>253</v>
       </c>
@@ -5818,8 +6154,11 @@
       <c r="M112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>256</v>
       </c>
@@ -5859,8 +6198,11 @@
       <c r="M113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>258</v>
       </c>
@@ -5900,8 +6242,11 @@
       <c r="M114">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>260</v>
       </c>
@@ -5941,8 +6286,11 @@
       <c r="M115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>262</v>
       </c>
@@ -5982,8 +6330,11 @@
       <c r="M116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>264</v>
       </c>
@@ -6023,8 +6374,11 @@
       <c r="M117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>266</v>
       </c>
@@ -6064,8 +6418,11 @@
       <c r="M118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>268</v>
       </c>
@@ -6105,8 +6462,11 @@
       <c r="M119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>270</v>
       </c>
@@ -6146,8 +6506,11 @@
       <c r="M120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>272</v>
       </c>
@@ -6187,8 +6550,11 @@
       <c r="M121">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>274</v>
       </c>
@@ -6228,8 +6594,11 @@
       <c r="M122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>276</v>
       </c>
@@ -6269,8 +6638,11 @@
       <c r="M123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>278</v>
       </c>
@@ -6310,8 +6682,11 @@
       <c r="M124">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N124">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>280</v>
       </c>
@@ -6351,8 +6726,11 @@
       <c r="M125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N125">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>282</v>
       </c>
@@ -6392,8 +6770,12 @@
       <c r="M126">
         <v>0</v>
       </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N126"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TUnderdark/Resources/Cards.xlsx
+++ b/TUnderdark/Resources/Cards.xlsx
@@ -1212,8 +1212,8 @@
   <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L108" sqref="L108"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TUnderdark/Resources/Cards.xlsx
+++ b/TUnderdark/Resources/Cards.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="12885"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="27870" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="292">
   <si>
     <t>SpecificType</t>
   </si>
@@ -895,6 +895,9 @@
   </si>
   <si>
     <t>Deploy</t>
+  </si>
+  <si>
+    <t>ReturnEnemySpy</t>
   </si>
 </sst>
 </file>
@@ -1209,11 +1212,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:O126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N126" sqref="N126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,7 +1233,7 @@
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1273,8 +1276,11 @@
       <c r="N1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1317,8 +1323,11 @@
       <c r="N2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1361,8 +1370,11 @@
       <c r="N3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1405,8 +1417,11 @@
       <c r="N4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1449,8 +1464,11 @@
       <c r="N5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1493,8 +1511,11 @@
       <c r="N6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1537,8 +1558,11 @@
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1581,8 +1605,11 @@
       <c r="N8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1625,8 +1652,11 @@
       <c r="N9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1669,8 +1699,11 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1713,8 +1746,11 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1757,8 +1793,11 @@
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1801,8 +1840,11 @@
       <c r="N13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1845,8 +1887,11 @@
       <c r="N14">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1889,8 +1934,11 @@
       <c r="N15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1933,8 +1981,11 @@
       <c r="N16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1977,8 +2028,11 @@
       <c r="N17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -2021,8 +2075,11 @@
       <c r="N18">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -2065,8 +2122,11 @@
       <c r="N19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -2109,8 +2169,11 @@
       <c r="N20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -2153,8 +2216,11 @@
       <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -2197,8 +2263,11 @@
       <c r="N22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -2241,8 +2310,11 @@
       <c r="N23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -2285,8 +2357,11 @@
       <c r="N24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -2329,8 +2404,11 @@
       <c r="N25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -2373,8 +2451,11 @@
       <c r="N26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -2417,8 +2498,11 @@
       <c r="N27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -2461,8 +2545,11 @@
       <c r="N28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -2505,8 +2592,11 @@
       <c r="N29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -2549,8 +2639,11 @@
       <c r="N30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -2593,8 +2686,11 @@
       <c r="N31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -2637,8 +2733,11 @@
       <c r="N32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -2681,8 +2780,11 @@
       <c r="N33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2725,8 +2827,11 @@
       <c r="N34">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -2769,8 +2874,11 @@
       <c r="N35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -2813,8 +2921,11 @@
       <c r="N36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -2857,8 +2968,11 @@
       <c r="N37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -2901,8 +3015,11 @@
       <c r="N38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -2945,8 +3062,11 @@
       <c r="N39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -2989,8 +3109,11 @@
       <c r="N40">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -3033,8 +3156,11 @@
       <c r="N41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -3077,8 +3203,11 @@
       <c r="N42">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -3121,8 +3250,11 @@
       <c r="N43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -3165,8 +3297,11 @@
       <c r="N44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -3209,8 +3344,11 @@
       <c r="N45">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -3253,8 +3391,11 @@
       <c r="N46">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -3297,8 +3438,11 @@
       <c r="N47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>111</v>
       </c>
@@ -3341,8 +3485,11 @@
       <c r="N48">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -3385,8 +3532,11 @@
       <c r="N49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -3429,8 +3579,11 @@
       <c r="N50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>117</v>
       </c>
@@ -3473,8 +3626,11 @@
       <c r="N51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -3517,8 +3673,11 @@
       <c r="N52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -3561,8 +3720,11 @@
       <c r="N53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>124</v>
       </c>
@@ -3605,8 +3767,11 @@
       <c r="N54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>126</v>
       </c>
@@ -3649,8 +3814,11 @@
       <c r="N55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>128</v>
       </c>
@@ -3693,8 +3861,11 @@
       <c r="N56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>130</v>
       </c>
@@ -3737,8 +3908,11 @@
       <c r="N57">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>133</v>
       </c>
@@ -3781,8 +3955,11 @@
       <c r="N58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>135</v>
       </c>
@@ -3825,8 +4002,11 @@
       <c r="N59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>137</v>
       </c>
@@ -3869,8 +4049,11 @@
       <c r="N60">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>139</v>
       </c>
@@ -3913,8 +4096,11 @@
       <c r="N61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>141</v>
       </c>
@@ -3957,8 +4143,11 @@
       <c r="N62">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>143</v>
       </c>
@@ -4001,8 +4190,11 @@
       <c r="N63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>145</v>
       </c>
@@ -4045,8 +4237,11 @@
       <c r="N64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>147</v>
       </c>
@@ -4089,8 +4284,11 @@
       <c r="N65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>149</v>
       </c>
@@ -4133,8 +4331,11 @@
       <c r="N66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>152</v>
       </c>
@@ -4177,8 +4378,11 @@
       <c r="N67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>154</v>
       </c>
@@ -4221,8 +4425,11 @@
       <c r="N68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>156</v>
       </c>
@@ -4265,8 +4472,11 @@
       <c r="N69">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>158</v>
       </c>
@@ -4309,8 +4519,11 @@
       <c r="N70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>160</v>
       </c>
@@ -4353,8 +4566,11 @@
       <c r="N71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>162</v>
       </c>
@@ -4397,8 +4613,11 @@
       <c r="N72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>164</v>
       </c>
@@ -4441,8 +4660,11 @@
       <c r="N73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>166</v>
       </c>
@@ -4485,8 +4707,11 @@
       <c r="N74">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>168</v>
       </c>
@@ -4529,8 +4754,11 @@
       <c r="N75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>171</v>
       </c>
@@ -4573,8 +4801,11 @@
       <c r="N76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>174</v>
       </c>
@@ -4617,8 +4848,11 @@
       <c r="N77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>177</v>
       </c>
@@ -4661,8 +4895,11 @@
       <c r="N78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>179</v>
       </c>
@@ -4705,8 +4942,11 @@
       <c r="N79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>181</v>
       </c>
@@ -4749,8 +4989,11 @@
       <c r="N80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>183</v>
       </c>
@@ -4793,8 +5036,11 @@
       <c r="N81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>185</v>
       </c>
@@ -4837,8 +5083,11 @@
       <c r="N82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>188</v>
       </c>
@@ -4881,8 +5130,11 @@
       <c r="N83">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>190</v>
       </c>
@@ -4925,8 +5177,11 @@
       <c r="N84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>192</v>
       </c>
@@ -4969,8 +5224,11 @@
       <c r="N85">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>194</v>
       </c>
@@ -5013,8 +5271,11 @@
       <c r="N86">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>196</v>
       </c>
@@ -5057,8 +5318,11 @@
       <c r="N87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O87">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>199</v>
       </c>
@@ -5101,8 +5365,11 @@
       <c r="N88">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>201</v>
       </c>
@@ -5145,8 +5412,11 @@
       <c r="N89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O89">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>204</v>
       </c>
@@ -5189,8 +5459,11 @@
       <c r="N90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>206</v>
       </c>
@@ -5233,8 +5506,11 @@
       <c r="N91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>209</v>
       </c>
@@ -5277,8 +5553,11 @@
       <c r="N92">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>212</v>
       </c>
@@ -5321,8 +5600,11 @@
       <c r="N93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>214</v>
       </c>
@@ -5365,8 +5647,11 @@
       <c r="N94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>216</v>
       </c>
@@ -5409,8 +5694,11 @@
       <c r="N95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>219</v>
       </c>
@@ -5453,8 +5741,11 @@
       <c r="N96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>222</v>
       </c>
@@ -5497,8 +5788,11 @@
       <c r="N97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>224</v>
       </c>
@@ -5541,8 +5835,11 @@
       <c r="N98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>226</v>
       </c>
@@ -5585,8 +5882,11 @@
       <c r="N99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>228</v>
       </c>
@@ -5629,8 +5929,11 @@
       <c r="N100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>230</v>
       </c>
@@ -5673,8 +5976,11 @@
       <c r="N101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>232</v>
       </c>
@@ -5717,8 +6023,11 @@
       <c r="N102">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O102">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>234</v>
       </c>
@@ -5761,8 +6070,11 @@
       <c r="N103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>236</v>
       </c>
@@ -5805,8 +6117,11 @@
       <c r="N104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>238</v>
       </c>
@@ -5849,8 +6164,11 @@
       <c r="N105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>240</v>
       </c>
@@ -5893,8 +6211,11 @@
       <c r="N106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>243</v>
       </c>
@@ -5937,8 +6258,11 @@
       <c r="N107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>245</v>
       </c>
@@ -5981,8 +6305,11 @@
       <c r="N108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O108">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>247</v>
       </c>
@@ -6025,8 +6352,11 @@
       <c r="N109">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O109">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>249</v>
       </c>
@@ -6069,8 +6399,11 @@
       <c r="N110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>251</v>
       </c>
@@ -6113,8 +6446,11 @@
       <c r="N111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>253</v>
       </c>
@@ -6157,8 +6493,11 @@
       <c r="N112">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>256</v>
       </c>
@@ -6201,8 +6540,11 @@
       <c r="N113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>258</v>
       </c>
@@ -6245,8 +6587,11 @@
       <c r="N114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>260</v>
       </c>
@@ -6289,8 +6634,11 @@
       <c r="N115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>262</v>
       </c>
@@ -6333,8 +6681,11 @@
       <c r="N116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>264</v>
       </c>
@@ -6377,8 +6728,11 @@
       <c r="N117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>266</v>
       </c>
@@ -6421,8 +6775,11 @@
       <c r="N118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>268</v>
       </c>
@@ -6465,8 +6822,11 @@
       <c r="N119">
         <v>3</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>270</v>
       </c>
@@ -6509,8 +6869,11 @@
       <c r="N120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>272</v>
       </c>
@@ -6553,8 +6916,11 @@
       <c r="N121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>274</v>
       </c>
@@ -6597,8 +6963,11 @@
       <c r="N122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>276</v>
       </c>
@@ -6641,8 +7010,11 @@
       <c r="N123">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>278</v>
       </c>
@@ -6685,8 +7057,11 @@
       <c r="N124">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>280</v>
       </c>
@@ -6729,8 +7104,11 @@
       <c r="N125">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O125">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>282</v>
       </c>
@@ -6773,9 +7151,11 @@
       <c r="N126">
         <v>0</v>
       </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N126"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TUnderdark/Resources/Cards.xlsx
+++ b/TUnderdark/Resources/Cards.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="27870" windowHeight="12885"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="27870" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cards!$A$1:$N$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cards!$A$1:$Q$126</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="294">
   <si>
     <t>SpecificType</t>
   </si>
@@ -898,6 +898,12 @@
   </si>
   <si>
     <t>ReturnEnemySpy</t>
+  </si>
+  <si>
+    <t>IsPlaceSpyForEnemySpy</t>
+  </si>
+  <si>
+    <t>IsPlaceSpyForEnemyTroops</t>
   </si>
 </sst>
 </file>
@@ -1212,11 +1218,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O126"/>
+  <dimension ref="A1:Q126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N126" sqref="N126"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,7 +1239,7 @@
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1279,8 +1285,14 @@
       <c r="O1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1326,8 +1338,14 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1373,8 +1391,14 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1420,8 +1444,14 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1467,8 +1497,14 @@
       <c r="O5">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1514,8 +1550,14 @@
       <c r="O6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1561,8 +1603,14 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1608,8 +1656,14 @@
       <c r="O8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1655,8 +1709,14 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1702,8 +1762,14 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1749,8 +1815,14 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1796,8 +1868,14 @@
       <c r="O12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1843,8 +1921,14 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1890,8 +1974,14 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1937,8 +2027,14 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1984,8 +2080,14 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -2031,8 +2133,14 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -2078,8 +2186,14 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -2125,8 +2239,14 @@
       <c r="O19">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -2172,8 +2292,14 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -2219,8 +2345,14 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -2266,8 +2398,14 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -2313,8 +2451,14 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -2360,8 +2504,14 @@
       <c r="O24">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -2407,8 +2557,14 @@
       <c r="O25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -2454,8 +2610,14 @@
       <c r="O26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -2501,8 +2663,14 @@
       <c r="O27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -2548,8 +2716,14 @@
       <c r="O28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -2595,8 +2769,14 @@
       <c r="O29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -2642,8 +2822,14 @@
       <c r="O30">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -2689,8 +2875,14 @@
       <c r="O31">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -2736,8 +2928,14 @@
       <c r="O32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -2783,8 +2981,14 @@
       <c r="O33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2830,8 +3034,14 @@
       <c r="O34">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -2877,8 +3087,14 @@
       <c r="O35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -2924,8 +3140,14 @@
       <c r="O36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -2971,8 +3193,14 @@
       <c r="O37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -3018,8 +3246,14 @@
       <c r="O38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -3065,8 +3299,14 @@
       <c r="O39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -3112,8 +3352,14 @@
       <c r="O40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -3159,8 +3405,14 @@
       <c r="O41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -3206,8 +3458,14 @@
       <c r="O42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -3253,8 +3511,14 @@
       <c r="O43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -3300,8 +3564,14 @@
       <c r="O44">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -3347,8 +3617,14 @@
       <c r="O45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -3394,8 +3670,14 @@
       <c r="O46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -3441,8 +3723,14 @@
       <c r="O47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>111</v>
       </c>
@@ -3488,8 +3776,14 @@
       <c r="O48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -3535,8 +3829,14 @@
       <c r="O49">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -3582,8 +3882,14 @@
       <c r="O50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>117</v>
       </c>
@@ -3629,8 +3935,14 @@
       <c r="O51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -3676,8 +3988,14 @@
       <c r="O52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -3723,8 +4041,14 @@
       <c r="O53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>124</v>
       </c>
@@ -3770,8 +4094,14 @@
       <c r="O54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>126</v>
       </c>
@@ -3817,8 +4147,14 @@
       <c r="O55">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>128</v>
       </c>
@@ -3864,8 +4200,14 @@
       <c r="O56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>130</v>
       </c>
@@ -3911,8 +4253,14 @@
       <c r="O57">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>133</v>
       </c>
@@ -3958,8 +4306,14 @@
       <c r="O58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>135</v>
       </c>
@@ -4005,8 +4359,14 @@
       <c r="O59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>137</v>
       </c>
@@ -4052,8 +4412,14 @@
       <c r="O60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>139</v>
       </c>
@@ -4099,8 +4465,14 @@
       <c r="O61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>141</v>
       </c>
@@ -4146,8 +4518,14 @@
       <c r="O62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>143</v>
       </c>
@@ -4193,8 +4571,14 @@
       <c r="O63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>145</v>
       </c>
@@ -4240,8 +4624,14 @@
       <c r="O64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>147</v>
       </c>
@@ -4287,8 +4677,14 @@
       <c r="O65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>149</v>
       </c>
@@ -4334,8 +4730,14 @@
       <c r="O66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>152</v>
       </c>
@@ -4381,8 +4783,14 @@
       <c r="O67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>154</v>
       </c>
@@ -4428,8 +4836,14 @@
       <c r="O68">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>156</v>
       </c>
@@ -4475,8 +4889,14 @@
       <c r="O69">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>158</v>
       </c>
@@ -4522,8 +4942,14 @@
       <c r="O70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>160</v>
       </c>
@@ -4569,8 +4995,14 @@
       <c r="O71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>162</v>
       </c>
@@ -4616,8 +5048,14 @@
       <c r="O72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>164</v>
       </c>
@@ -4663,8 +5101,14 @@
       <c r="O73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>166</v>
       </c>
@@ -4710,8 +5154,14 @@
       <c r="O74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>168</v>
       </c>
@@ -4757,8 +5207,14 @@
       <c r="O75">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>171</v>
       </c>
@@ -4804,8 +5260,14 @@
       <c r="O76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>174</v>
       </c>
@@ -4851,8 +5313,14 @@
       <c r="O77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>177</v>
       </c>
@@ -4898,8 +5366,14 @@
       <c r="O78">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>179</v>
       </c>
@@ -4945,8 +5419,14 @@
       <c r="O79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>181</v>
       </c>
@@ -4992,8 +5472,14 @@
       <c r="O80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>183</v>
       </c>
@@ -5039,8 +5525,14 @@
       <c r="O81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>185</v>
       </c>
@@ -5086,8 +5578,14 @@
       <c r="O82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>188</v>
       </c>
@@ -5133,8 +5631,14 @@
       <c r="O83">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>190</v>
       </c>
@@ -5180,8 +5684,14 @@
       <c r="O84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>192</v>
       </c>
@@ -5227,8 +5737,14 @@
       <c r="O85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>194</v>
       </c>
@@ -5274,8 +5790,14 @@
       <c r="O86">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>196</v>
       </c>
@@ -5321,8 +5843,14 @@
       <c r="O87">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>199</v>
       </c>
@@ -5368,8 +5896,14 @@
       <c r="O88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>201</v>
       </c>
@@ -5415,8 +5949,14 @@
       <c r="O89">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>204</v>
       </c>
@@ -5462,8 +6002,14 @@
       <c r="O90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>206</v>
       </c>
@@ -5509,8 +6055,14 @@
       <c r="O91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>209</v>
       </c>
@@ -5556,8 +6108,14 @@
       <c r="O92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>212</v>
       </c>
@@ -5603,8 +6161,14 @@
       <c r="O93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>214</v>
       </c>
@@ -5650,8 +6214,14 @@
       <c r="O94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P94" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>216</v>
       </c>
@@ -5697,8 +6267,14 @@
       <c r="O95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P95" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>219</v>
       </c>
@@ -5744,8 +6320,14 @@
       <c r="O96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P96" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>222</v>
       </c>
@@ -5791,8 +6373,14 @@
       <c r="O97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P97" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>224</v>
       </c>
@@ -5838,8 +6426,14 @@
       <c r="O98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P98" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>226</v>
       </c>
@@ -5885,8 +6479,14 @@
       <c r="O99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P99" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>228</v>
       </c>
@@ -5932,8 +6532,14 @@
       <c r="O100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P100" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>230</v>
       </c>
@@ -5979,8 +6585,14 @@
       <c r="O101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P101" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>232</v>
       </c>
@@ -6026,8 +6638,14 @@
       <c r="O102">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P102" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>234</v>
       </c>
@@ -6073,8 +6691,14 @@
       <c r="O103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P103" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>236</v>
       </c>
@@ -6120,8 +6744,14 @@
       <c r="O104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P104" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>238</v>
       </c>
@@ -6167,8 +6797,14 @@
       <c r="O105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P105" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>240</v>
       </c>
@@ -6214,8 +6850,14 @@
       <c r="O106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P106" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>243</v>
       </c>
@@ -6261,8 +6903,14 @@
       <c r="O107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P107" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>245</v>
       </c>
@@ -6308,8 +6956,14 @@
       <c r="O108">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P108" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>247</v>
       </c>
@@ -6355,8 +7009,14 @@
       <c r="O109">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P109" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>249</v>
       </c>
@@ -6402,8 +7062,14 @@
       <c r="O110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P110" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>251</v>
       </c>
@@ -6449,8 +7115,14 @@
       <c r="O111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P111" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>253</v>
       </c>
@@ -6496,8 +7168,14 @@
       <c r="O112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P112" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>256</v>
       </c>
@@ -6543,8 +7221,14 @@
       <c r="O113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P113" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>258</v>
       </c>
@@ -6590,8 +7274,14 @@
       <c r="O114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P114" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>260</v>
       </c>
@@ -6637,8 +7327,14 @@
       <c r="O115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P115" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>262</v>
       </c>
@@ -6684,8 +7380,14 @@
       <c r="O116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P116" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>264</v>
       </c>
@@ -6731,8 +7433,14 @@
       <c r="O117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P117" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>266</v>
       </c>
@@ -6778,8 +7486,14 @@
       <c r="O118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P118" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>268</v>
       </c>
@@ -6825,8 +7539,14 @@
       <c r="O119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P119" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>270</v>
       </c>
@@ -6872,8 +7592,14 @@
       <c r="O120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P120" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>272</v>
       </c>
@@ -6919,8 +7645,14 @@
       <c r="O121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>274</v>
       </c>
@@ -6966,8 +7698,14 @@
       <c r="O122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P122" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>276</v>
       </c>
@@ -7013,8 +7751,14 @@
       <c r="O123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P123" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>278</v>
       </c>
@@ -7060,8 +7804,14 @@
       <c r="O124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P124" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>280</v>
       </c>
@@ -7107,8 +7857,14 @@
       <c r="O125">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P125" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>282</v>
       </c>
@@ -7154,8 +7910,15 @@
       <c r="O126">
         <v>0</v>
       </c>
+      <c r="P126" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q126" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q126"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>